--- a/CLAVES CIVIL.xlsx
+++ b/CLAVES CIVIL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Servicio Social\FORMATOS FINALES CORREGIDOS COMPLETOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Servicio Social\FORMATOS FINALES CORREGIDOS COMPLETOS\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1231,9 +1231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R110" sqref="R110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
